--- a/scenarios/cdsr/trunk/papers/QR2012/images/result-graphs.xlsx
+++ b/scenarios/cdsr/trunk/papers/QR2012/images/result-graphs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22221"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17140" windowHeight="15480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17145" windowHeight="15480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>Entire Room</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Recall</t>
+  </si>
+  <si>
+    <t>F1 Measure</t>
+  </si>
+  <si>
+    <t>NEED TO GENERATE THE RIGHT DATA AND ERRORS</t>
   </si>
 </sst>
 </file>
@@ -104,6 +110,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -129,7 +140,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400"/>
+            <a:defRPr sz="1600"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -244,11 +255,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2054131944"/>
-        <c:axId val="2054140744"/>
+        <c:axId val="101838208"/>
+        <c:axId val="102171776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2054131944"/>
+        <c:axId val="101838208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -267,7 +278,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2054140744"/>
+        <c:crossAx val="102171776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -275,14 +286,20 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2054140744"/>
+        <c:axId val="102171776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -297,7 +314,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2054131944"/>
+        <c:crossAx val="101838208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -309,7 +326,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -337,7 +354,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400"/>
+            <a:defRPr sz="1800"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -345,7 +362,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16269845340993613"/>
+          <c:y val="0.22956124838222072"/>
+          <c:w val="0.83404421759983582"/>
+          <c:h val="0.49080587636708523"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -363,8 +390,41 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:spPr>
+              <a:ln>
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:tint val="66000"/>
+                        <a:satMod val="160000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="50000">
+                      <a:schemeClr val="accent1">
+                        <a:tint val="44500"/>
+                        <a:satMod val="160000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:tint val="23500"/>
+                        <a:satMod val="160000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="0"/>
+                </a:gradFill>
+              </a:ln>
+            </c:spPr>
           </c:marker>
           <c:errBars>
             <c:errDir val="y"/>
@@ -455,11 +515,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2142119224"/>
-        <c:axId val="-2142150152"/>
+        <c:axId val="102192256"/>
+        <c:axId val="102193792"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2142119224"/>
+        <c:axId val="102192256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -473,12 +533,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1800" b="1"/>
+              <a:defRPr sz="1600" b="1"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142150152"/>
+        <c:crossAx val="102193792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -486,14 +546,20 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2142150152"/>
+        <c:axId val="102193792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.0"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -508,7 +574,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2142119224"/>
+        <c:crossAx val="102192256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -520,7 +586,194 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="119"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="19"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>F1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13041229221347331"/>
+          <c:y val="0.19147922209382531"/>
+          <c:w val="0.82683858267716537"/>
+          <c:h val="0.6945200791880537"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>F1 Measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$39:$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Entire Room</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Transferred</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Manually Encoded</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$39:$B$41</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.28973913043478261</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4649462365591398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.68942028985507253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="60390016"/>
+        <c:axId val="72081792"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="60390016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="72081792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="72081792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="60390016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.25"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -530,16 +783,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>12701</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>177799</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -561,15 +814,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:colOff>6351</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>450850</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>552451</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:rowOff>120649</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -583,6 +836,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>838199</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -913,18 +1196,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>3</v>
       </c>
@@ -932,7 +1215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -943,7 +1226,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -954,7 +1237,7 @@
         <v>0.37</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -965,7 +1248,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>5</v>
       </c>
@@ -973,7 +1256,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -984,7 +1267,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -995,7 +1278,7 @@
         <v>0.38</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>1</v>
       </c>
@@ -1004,6 +1287,43 @@
       </c>
       <c r="C20">
         <v>0.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <f>2*(B2*B18)/(B2+B18)</f>
+        <v>0.28973913043478261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <f>2*(B3*B19)/(B3+B19)</f>
+        <v>0.4649462365591398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41">
+        <f>2*(B4*B20)/(B4+B20)</f>
+        <v>0.68942028985507253</v>
       </c>
     </row>
   </sheetData>

--- a/scenarios/cdsr/trunk/papers/QR2012/images/result-graphs.xlsx
+++ b/scenarios/cdsr/trunk/papers/QR2012/images/result-graphs.xlsx
@@ -148,7 +148,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16296386687390013"/>
+          <c:y val="0.21327613873633247"/>
+          <c:w val="0.82072291942300035"/>
+          <c:h val="0.5122565114838491"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -166,48 +176,6 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet1!$C$2:$C$5</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="4"/>
-                  <c:pt idx="0">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.37</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.3</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet1!$C$2:$C$4</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>0.11</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.37</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.3</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$4</c:f>
@@ -255,11 +223,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="101838208"/>
-        <c:axId val="102171776"/>
+        <c:axId val="98696576"/>
+        <c:axId val="99292288"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="101838208"/>
+        <c:axId val="98696576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -278,7 +246,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102171776"/>
+        <c:crossAx val="99292288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -286,7 +254,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102171776"/>
+        <c:axId val="99292288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -314,7 +282,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101838208"/>
+        <c:crossAx val="98696576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -426,48 +394,6 @@
               </a:ln>
             </c:spPr>
           </c:marker>
-          <c:errBars>
-            <c:errDir val="y"/>
-            <c:errBarType val="both"/>
-            <c:errValType val="cust"/>
-            <c:noEndCap val="0"/>
-            <c:plus>
-              <c:numRef>
-                <c:f>Sheet1!$C$18:$C$20</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>0.05</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.38</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.25</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:plus>
-            <c:minus>
-              <c:numRef>
-                <c:f>Sheet1!$C$18:$C$20</c:f>
-                <c:numCache>
-                  <c:formatCode>General</c:formatCode>
-                  <c:ptCount val="3"/>
-                  <c:pt idx="0">
-                    <c:v>0.05</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>0.38</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>0.25</c:v>
-                  </c:pt>
-                </c:numCache>
-              </c:numRef>
-            </c:minus>
-          </c:errBars>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$A$18:$A$20</c:f>
@@ -515,11 +441,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="102192256"/>
-        <c:axId val="102193792"/>
+        <c:axId val="99325056"/>
+        <c:axId val="99326592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="102192256"/>
+        <c:axId val="99325056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -538,7 +464,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102193792"/>
+        <c:crossAx val="99326592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -546,7 +472,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="102193792"/>
+        <c:axId val="99326592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -574,7 +500,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="102192256"/>
+        <c:crossAx val="99325056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -702,11 +628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="60390016"/>
-        <c:axId val="72081792"/>
+        <c:axId val="100800768"/>
+        <c:axId val="100802560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="60390016"/>
+        <c:axId val="100800768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -725,7 +651,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="72081792"/>
+        <c:crossAx val="100802560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -733,7 +659,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="72081792"/>
+        <c:axId val="100802560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -761,7 +687,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="60390016"/>
+        <c:crossAx val="100800768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.25"/>
@@ -1199,7 +1125,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
